--- a/Kode/Server2/Logs/lora_node2/2020-05-23.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-05-23.xlsx
@@ -403,7 +403,7 @@
         <v>33.165</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07203438</v>
+        <v>72.03438</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>36.39</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07918464</v>
+        <v>79.18464</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>39.45</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08568539999999999</v>
+        <v>85.6854</v>
       </c>
     </row>
     <row r="5">
@@ -463,7 +463,7 @@
         <v>39.81</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08646732</v>
+        <v>86.46732</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>35.52</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07714944</v>
+        <v>77.14944</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>33.93</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07356024000000001</v>
+        <v>73.56024000000001</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>29.265</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06332946</v>
+        <v>63.32946</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         <v>27.84</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0601344</v>
+        <v>60.1344</v>
       </c>
     </row>
     <row r="10">
@@ -563,7 +563,7 @@
         <v>28.305</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0617049</v>
+        <v>61.7049</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +583,7 @@
         <v>28.575</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0620649</v>
+        <v>62.0649</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>33.9</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0734952</v>
+        <v>73.4952</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>37.665</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08195904</v>
+        <v>81.95904</v>
       </c>
     </row>
     <row r="14">
@@ -643,7 +643,7 @@
         <v>45.33</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09863808</v>
+        <v>98.63808</v>
       </c>
     </row>
     <row r="15">
@@ -663,7 +663,7 @@
         <v>37.455</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08150208</v>
+        <v>81.50208000000001</v>
       </c>
     </row>
     <row r="16">
@@ -683,7 +683,7 @@
         <v>35.295</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07666074</v>
+        <v>76.66074</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>35.115</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07626978000000001</v>
+        <v>76.26978000000001</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +723,7 @@
         <v>39.84</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08653247999999999</v>
+        <v>86.53247999999999</v>
       </c>
     </row>
     <row r="19">
@@ -743,7 +743,7 @@
         <v>40.68</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08851968</v>
+        <v>88.51968000000001</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +763,7 @@
         <v>49.44</v>
       </c>
       <c r="F20" t="n">
-        <v>0.10797696</v>
+        <v>107.97696</v>
       </c>
     </row>
     <row r="21">
@@ -783,7 +783,7 @@
         <v>53.37</v>
       </c>
       <c r="F21" t="n">
-        <v>0.11613312</v>
+        <v>116.13312</v>
       </c>
     </row>
     <row r="22">
@@ -803,7 +803,7 @@
         <v>48.855</v>
       </c>
       <c r="F22" t="n">
-        <v>0.10630848</v>
+        <v>106.30848</v>
       </c>
     </row>
     <row r="23">
@@ -823,7 +823,7 @@
         <v>55.16999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.12049128</v>
+        <v>120.49128</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>50.11499999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.10905024</v>
+        <v>109.05024</v>
       </c>
     </row>
     <row r="25">
@@ -863,7 +863,7 @@
         <v>43.05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.093849</v>
+        <v>93.849</v>
       </c>
     </row>
     <row r="26">
@@ -883,7 +883,7 @@
         <v>41.715</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09077183999999999</v>
+        <v>90.77184</v>
       </c>
     </row>
     <row r="27">
@@ -903,7 +903,7 @@
         <v>45.285</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09908358</v>
+        <v>99.08358</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>52.41</v>
       </c>
       <c r="F28" t="n">
-        <v>0.11467308</v>
+        <v>114.67308</v>
       </c>
     </row>
     <row r="29">
@@ -943,7 +943,7 @@
         <v>50.29499999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.10984428</v>
+        <v>109.84428</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +963,7 @@
         <v>58.335</v>
       </c>
       <c r="F30" t="n">
-        <v>0.12810366</v>
+        <v>128.10366</v>
       </c>
     </row>
     <row r="31">
@@ -983,7 +983,7 @@
         <v>44.07</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09589632000000001</v>
+        <v>95.89632</v>
       </c>
     </row>
     <row r="32">
@@ -1003,7 +1003,7 @@
         <v>42.345</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09231209999999999</v>
+        <v>92.3121</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1023,7 @@
         <v>45.6</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09977280000000001</v>
+        <v>99.7728</v>
       </c>
     </row>
     <row r="34">
@@ -1043,7 +1043,7 @@
         <v>60.345</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1315521</v>
+        <v>131.5521</v>
       </c>
     </row>
     <row r="35">
@@ -1063,7 +1063,7 @@
         <v>60.36</v>
       </c>
       <c r="F35" t="n">
-        <v>0.132792</v>
+        <v>132.792</v>
       </c>
     </row>
     <row r="36">
@@ -1083,7 +1083,7 @@
         <v>48.84</v>
       </c>
       <c r="F36" t="n">
-        <v>0.10686192</v>
+        <v>106.86192</v>
       </c>
     </row>
     <row r="37">
@@ -1103,7 +1103,7 @@
         <v>50.52</v>
       </c>
       <c r="F37" t="n">
-        <v>0.10993152</v>
+        <v>109.93152</v>
       </c>
     </row>
     <row r="38">
@@ -1123,7 +1123,7 @@
         <v>51.825</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1129785</v>
+        <v>112.9785</v>
       </c>
     </row>
     <row r="39">
@@ -1143,7 +1143,7 @@
         <v>55.275</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1207206</v>
+        <v>120.7206</v>
       </c>
     </row>
     <row r="40">
@@ -1163,7 +1163,7 @@
         <v>54.945</v>
       </c>
       <c r="F40" t="n">
-        <v>0.12021966</v>
+        <v>120.21966</v>
       </c>
     </row>
     <row r="41">
@@ -1183,7 +1183,7 @@
         <v>54.96</v>
       </c>
       <c r="F41" t="n">
-        <v>0.120912</v>
+        <v>120.912</v>
       </c>
     </row>
     <row r="42">
@@ -1203,7 +1203,7 @@
         <v>55.98</v>
       </c>
       <c r="F42" t="n">
-        <v>0.12181248</v>
+        <v>121.81248</v>
       </c>
     </row>
     <row r="43">
@@ -1223,7 +1223,7 @@
         <v>56.145</v>
       </c>
       <c r="F43" t="n">
-        <v>0.12284526</v>
+        <v>122.84526</v>
       </c>
     </row>
     <row r="44">
@@ -1243,7 +1243,7 @@
         <v>60.61499999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.13286808</v>
+        <v>132.86808</v>
       </c>
     </row>
     <row r="45">
@@ -1263,7 +1263,7 @@
         <v>60.705</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13306536</v>
+        <v>133.06536</v>
       </c>
     </row>
     <row r="46">
@@ -1283,7 +1283,7 @@
         <v>61.095</v>
       </c>
       <c r="F46" t="n">
-        <v>0.13367586</v>
+        <v>133.67586</v>
       </c>
     </row>
     <row r="47">
@@ -1303,7 +1303,7 @@
         <v>81.20999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.17931168</v>
+        <v>179.31168</v>
       </c>
     </row>
     <row r="48">
@@ -1323,7 +1323,7 @@
         <v>93.015</v>
       </c>
       <c r="F48" t="n">
-        <v>0.20574918</v>
+        <v>205.74918</v>
       </c>
     </row>
     <row r="49">
@@ -1343,7 +1343,7 @@
         <v>83.67</v>
       </c>
       <c r="F49" t="n">
-        <v>0.18474336</v>
+        <v>184.74336</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
         <v>48.81</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1064058</v>
+        <v>106.4058</v>
       </c>
     </row>
     <row r="51">
@@ -1383,7 +1383,7 @@
         <v>43.545</v>
       </c>
       <c r="F51" t="n">
-        <v>0.09527646000000002</v>
+        <v>95.27646000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1403,7 +1403,7 @@
         <v>42.795</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09312192000000001</v>
+        <v>93.12192000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1423,7 +1423,7 @@
         <v>39.63</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08623487999999999</v>
+        <v>86.23487999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1443,7 +1443,7 @@
         <v>38.91</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08466816000000001</v>
+        <v>84.66816</v>
       </c>
     </row>
     <row r="55">
@@ -1463,7 +1463,7 @@
         <v>34.155</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07432128</v>
+        <v>74.32128</v>
       </c>
     </row>
     <row r="56">
@@ -1483,7 +1483,7 @@
         <v>34.29</v>
       </c>
       <c r="F56" t="n">
-        <v>0.07447788</v>
+        <v>74.47788</v>
       </c>
     </row>
     <row r="57">
@@ -1503,7 +1503,7 @@
         <v>34.335</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07443828000000001</v>
+        <v>74.43828000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1523,7 +1523,7 @@
         <v>34.245</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07438014</v>
+        <v>74.38014</v>
       </c>
     </row>
     <row r="59">
@@ -1543,7 +1543,7 @@
         <v>33.09</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07160675999999999</v>
+        <v>71.60675999999999</v>
       </c>
     </row>
     <row r="60">
@@ -1563,7 +1563,7 @@
         <v>64.8</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1428192</v>
+        <v>142.8192</v>
       </c>
     </row>
     <row r="61">
@@ -1583,7 +1583,7 @@
         <v>48.435</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1055883</v>
+        <v>105.5883</v>
       </c>
     </row>
     <row r="62">
@@ -1603,7 +1603,7 @@
         <v>33.33</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07212612</v>
+        <v>72.12612</v>
       </c>
     </row>
     <row r="63">
@@ -1623,7 +1623,7 @@
         <v>36.765</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07985358000000001</v>
+        <v>79.85358000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1643,7 +1643,7 @@
         <v>35.415</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0772047</v>
+        <v>77.2047</v>
       </c>
     </row>
     <row r="65">
@@ -1663,7 +1663,7 @@
         <v>71.47499999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1569591</v>
+        <v>156.9591</v>
       </c>
     </row>
     <row r="66">
@@ -1683,7 +1683,7 @@
         <v>182.19</v>
       </c>
       <c r="F66" t="n">
-        <v>0.4161219600000001</v>
+        <v>416.1219600000001</v>
       </c>
     </row>
     <row r="67">
@@ -1703,7 +1703,7 @@
         <v>35.55</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07735679999999999</v>
+        <v>77.35679999999999</v>
       </c>
     </row>
     <row r="68">
@@ -1723,7 +1723,7 @@
         <v>133.635</v>
       </c>
       <c r="F68" t="n">
-        <v>0.2993424</v>
+        <v>299.3424</v>
       </c>
     </row>
     <row r="69">
@@ -1743,7 +1743,7 @@
         <v>38.955</v>
       </c>
       <c r="F69" t="n">
-        <v>0.08476608000000001</v>
+        <v>84.76608</v>
       </c>
     </row>
     <row r="70">
@@ -1763,7 +1763,7 @@
         <v>36.735</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07978842</v>
+        <v>79.78842</v>
       </c>
     </row>
     <row r="71">
@@ -1783,7 +1783,7 @@
         <v>34.47</v>
       </c>
       <c r="F71" t="n">
-        <v>0.07473096</v>
+        <v>74.73096</v>
       </c>
     </row>
     <row r="72">
@@ -1803,7 +1803,7 @@
         <v>31.515</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06845058</v>
+        <v>68.45058</v>
       </c>
     </row>
     <row r="73">
@@ -1823,7 +1823,7 @@
         <v>45.51</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0992118</v>
+        <v>99.2118</v>
       </c>
     </row>
     <row r="74">
@@ -1843,7 +1843,7 @@
         <v>47.04</v>
       </c>
       <c r="F74" t="n">
-        <v>0.10235904</v>
+        <v>102.35904</v>
       </c>
     </row>
     <row r="75">
@@ -1863,7 +1863,7 @@
         <v>45.63</v>
       </c>
       <c r="F75" t="n">
-        <v>0.09910835999999999</v>
+        <v>99.10835999999999</v>
       </c>
     </row>
     <row r="76">
@@ -1883,7 +1883,7 @@
         <v>40.845</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0890421</v>
+        <v>89.0421</v>
       </c>
     </row>
     <row r="77">
@@ -1903,7 +1903,7 @@
         <v>34.005</v>
       </c>
       <c r="F77" t="n">
-        <v>0.07372283999999998</v>
+        <v>73.72283999999999</v>
       </c>
     </row>
     <row r="78">
@@ -1923,7 +1923,7 @@
         <v>30.99</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0669384</v>
+        <v>66.9384</v>
       </c>
     </row>
     <row r="79">
@@ -1943,7 +1943,7 @@
         <v>31.335</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0676836</v>
+        <v>67.6836</v>
       </c>
     </row>
     <row r="80">
@@ -1963,7 +1963,7 @@
         <v>26.745</v>
       </c>
       <c r="F80" t="n">
-        <v>0.05787618</v>
+        <v>57.87618</v>
       </c>
     </row>
     <row r="81">
@@ -1983,7 +1983,7 @@
         <v>31.59</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0688662</v>
+        <v>68.86620000000001</v>
       </c>
     </row>
     <row r="82">
@@ -2003,7 +2003,7 @@
         <v>30.015</v>
       </c>
       <c r="F82" t="n">
-        <v>0.06507252000000001</v>
+        <v>65.07252000000001</v>
       </c>
     </row>
     <row r="83">
@@ -2023,7 +2023,7 @@
         <v>30</v>
       </c>
       <c r="F83" t="n">
-        <v>0.06504</v>
+        <v>65.04000000000001</v>
       </c>
     </row>
     <row r="84">
@@ -2043,7 +2043,7 @@
         <v>38.805</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08443968</v>
+        <v>84.43968000000001</v>
       </c>
     </row>
     <row r="85">
@@ -2063,7 +2063,7 @@
         <v>48.105</v>
       </c>
       <c r="F85" t="n">
-        <v>0.10525374</v>
+        <v>105.25374</v>
       </c>
     </row>
     <row r="86">
@@ -2083,7 +2083,7 @@
         <v>50.025</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1086543</v>
+        <v>108.6543</v>
       </c>
     </row>
     <row r="87">
@@ -2103,7 +2103,7 @@
         <v>52.905</v>
       </c>
       <c r="F87" t="n">
-        <v>0.11596776</v>
+        <v>115.96776</v>
       </c>
     </row>
     <row r="88">
@@ -2123,7 +2123,7 @@
         <v>51.975</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1133055</v>
+        <v>113.3055</v>
       </c>
     </row>
     <row r="89">
@@ -2143,7 +2143,7 @@
         <v>46.23</v>
       </c>
       <c r="F89" t="n">
-        <v>0.10041156</v>
+        <v>100.41156</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2163,7 @@
         <v>61.305</v>
       </c>
       <c r="F90" t="n">
-        <v>0.13389012</v>
+        <v>133.89012</v>
       </c>
     </row>
     <row r="91">
@@ -2183,7 +2183,7 @@
         <v>61.71</v>
       </c>
       <c r="F91" t="n">
-        <v>0.13526832</v>
+        <v>135.26832</v>
       </c>
     </row>
     <row r="92">
@@ -2203,7 +2203,7 @@
         <v>161.565</v>
       </c>
       <c r="F92" t="n">
-        <v>0.36578316</v>
+        <v>365.78316</v>
       </c>
     </row>
     <row r="93">
@@ -2223,7 +2223,7 @@
         <v>140.415</v>
       </c>
       <c r="F93" t="n">
-        <v>0.31621458</v>
+        <v>316.21458</v>
       </c>
     </row>
     <row r="94">
@@ -2243,7 +2243,7 @@
         <v>114.225</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2549502</v>
+        <v>254.9502</v>
       </c>
     </row>
     <row r="95">
@@ -2263,7 +2263,7 @@
         <v>90.91499999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>0.20146764</v>
+        <v>201.46764</v>
       </c>
     </row>
     <row r="96">
@@ -2283,7 +2283,7 @@
         <v>39.63</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0863934</v>
+        <v>86.3934</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2303,7 @@
         <v>28.32</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06151104000000001</v>
+        <v>61.51104000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2323,7 +2323,7 @@
         <v>28.665</v>
       </c>
       <c r="F98" t="n">
-        <v>0.06248970000000001</v>
+        <v>62.48970000000001</v>
       </c>
     </row>
     <row r="99">
@@ -2343,7 +2343,7 @@
         <v>53.475</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1170033</v>
+        <v>117.0033</v>
       </c>
     </row>
     <row r="100">
@@ -2363,7 +2363,7 @@
         <v>35.13</v>
       </c>
       <c r="F100" t="n">
-        <v>0.07644288</v>
+        <v>76.44288</v>
       </c>
     </row>
     <row r="101">
@@ -2383,7 +2383,7 @@
         <v>33.48</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07271856</v>
+        <v>72.71856</v>
       </c>
     </row>
     <row r="102">
@@ -2403,7 +2403,7 @@
         <v>43.935</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0957783</v>
+        <v>95.7783</v>
       </c>
     </row>
     <row r="103">
@@ -2423,7 +2423,7 @@
         <v>49.44</v>
       </c>
       <c r="F103" t="n">
-        <v>0.10797696</v>
+        <v>107.97696</v>
       </c>
     </row>
     <row r="104">
@@ -2443,7 +2443,7 @@
         <v>58.89</v>
       </c>
       <c r="F104" t="n">
-        <v>0.12908688</v>
+        <v>129.08688</v>
       </c>
     </row>
     <row r="105">
@@ -2463,7 +2463,7 @@
         <v>106.395</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2361969</v>
+        <v>236.1969</v>
       </c>
     </row>
     <row r="106">
@@ -2483,7 +2483,7 @@
         <v>112.53</v>
       </c>
       <c r="F106" t="n">
-        <v>0.25071684</v>
+        <v>250.71684</v>
       </c>
     </row>
     <row r="107">
@@ -2503,7 +2503,7 @@
         <v>92.67</v>
       </c>
       <c r="F107" t="n">
-        <v>0.20461536</v>
+        <v>204.61536</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2523,7 @@
         <v>81.81</v>
       </c>
       <c r="F108" t="n">
-        <v>0.18129096</v>
+        <v>181.29096</v>
       </c>
     </row>
     <row r="109">
@@ -2543,7 +2543,7 @@
         <v>130.275</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2907738</v>
+        <v>290.7738000000001</v>
       </c>
     </row>
     <row r="110">
@@ -2563,7 +2563,7 @@
         <v>126.825</v>
       </c>
       <c r="F110" t="n">
-        <v>0.284088</v>
+        <v>284.088</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>130.62</v>
       </c>
       <c r="F111" t="n">
-        <v>0.2925888</v>
+        <v>292.5888</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>128.685</v>
       </c>
       <c r="F112" t="n">
-        <v>0.2882544</v>
+        <v>288.2544</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>126.39</v>
       </c>
       <c r="F113" t="n">
-        <v>0.2831136</v>
+        <v>283.1136</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>121.425</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2724777</v>
+        <v>272.4777</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>120.795</v>
       </c>
       <c r="F115" t="n">
-        <v>0.26961444</v>
+        <v>269.61444</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>119.37</v>
       </c>
       <c r="F116" t="n">
-        <v>0.26691132</v>
+        <v>266.91132</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>103.77</v>
       </c>
       <c r="F117" t="n">
-        <v>0.22995432</v>
+        <v>229.95432</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>115.515</v>
       </c>
       <c r="F118" t="n">
-        <v>0.25690536</v>
+        <v>256.90536</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>119.055</v>
       </c>
       <c r="F119" t="n">
-        <v>0.26525454</v>
+        <v>265.25454</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>89.7</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1984164</v>
+        <v>198.4164</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>117.675</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2631213</v>
+        <v>263.1213</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>116.64</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2612736000000001</v>
+        <v>261.2736000000001</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>118.14</v>
       </c>
       <c r="F123" t="n">
-        <v>0.26416104</v>
+        <v>264.16104</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>142.53</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3209775600000001</v>
+        <v>320.9775600000001</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>142.23</v>
       </c>
       <c r="F125" t="n">
-        <v>0.32030196</v>
+        <v>320.30196</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>139.845</v>
       </c>
       <c r="F126" t="n">
-        <v>0.31493094</v>
+        <v>314.93094</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>135.345</v>
       </c>
       <c r="F127" t="n">
-        <v>0.30425556</v>
+        <v>304.25556</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>139.155</v>
       </c>
       <c r="F128" t="n">
-        <v>0.31282044</v>
+        <v>312.82044</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>138.225</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3107298</v>
+        <v>310.7298</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>138.165</v>
       </c>
       <c r="F130" t="n">
-        <v>0.31059492</v>
+        <v>310.59492</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>137.31</v>
       </c>
       <c r="F131" t="n">
-        <v>0.30867288</v>
+        <v>308.67288</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>136.755</v>
       </c>
       <c r="F132" t="n">
-        <v>0.30742524</v>
+        <v>307.42524</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>135.045</v>
       </c>
       <c r="F133" t="n">
-        <v>0.30304098</v>
+        <v>303.04098</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>131.535</v>
       </c>
       <c r="F134" t="n">
-        <v>0.2946384</v>
+        <v>294.6384</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>130.32</v>
       </c>
       <c r="F135" t="n">
-        <v>0.29295936</v>
+        <v>292.95936</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>132.885</v>
       </c>
       <c r="F136" t="n">
-        <v>0.29819394</v>
+        <v>298.19394</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>131.325</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2946933</v>
+        <v>294.6933</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>93.63</v>
       </c>
       <c r="F138" t="n">
-        <v>0.20748408</v>
+        <v>207.48408</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>44.1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.09596160000000001</v>
+        <v>95.9616</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>27.84</v>
       </c>
       <c r="F140" t="n">
-        <v>0.06024576</v>
+        <v>60.24576</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>32.895</v>
       </c>
       <c r="F141" t="n">
-        <v>0.07131636000000001</v>
+        <v>71.31636</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>41.97</v>
       </c>
       <c r="F142" t="n">
-        <v>0.09132672000000001</v>
+        <v>91.32672000000001</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>29.565</v>
       </c>
       <c r="F143" t="n">
-        <v>0.06397865999999999</v>
+        <v>63.97865999999999</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>25.515</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0556227</v>
+        <v>55.62269999999999</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>50.66999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>0.11066328</v>
+        <v>110.66328</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>74.74499999999999</v>
       </c>
       <c r="F146" t="n">
-        <v>0.16503696</v>
+        <v>165.03696</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>88.44</v>
       </c>
       <c r="F147" t="n">
-        <v>0.19562928</v>
+        <v>195.62928</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>103.785</v>
       </c>
       <c r="F148" t="n">
-        <v>0.23081784</v>
+        <v>230.81784</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>97.95</v>
       </c>
       <c r="F149" t="n">
-        <v>0.2170572</v>
+        <v>217.0572</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>95.295</v>
       </c>
       <c r="F150" t="n">
-        <v>0.21117372</v>
+        <v>211.17372</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>86.715</v>
       </c>
       <c r="F151" t="n">
-        <v>0.19146672</v>
+        <v>191.46672</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>32.58</v>
       </c>
       <c r="F152" t="n">
-        <v>0.07063344000000001</v>
+        <v>70.63344000000001</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>23.94</v>
       </c>
       <c r="F153" t="n">
-        <v>0.05161464</v>
+        <v>51.61464</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>22.71</v>
       </c>
       <c r="F154" t="n">
-        <v>0.04887192000000001</v>
+        <v>48.87192000000001</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>22.485</v>
       </c>
       <c r="F155" t="n">
-        <v>0.04901730000000001</v>
+        <v>49.01730000000001</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>27.6</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0593952</v>
+        <v>59.3952</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>31.065</v>
       </c>
       <c r="F157" t="n">
-        <v>0.06734892000000001</v>
+        <v>67.34892000000001</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>31.2</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0675168</v>
+        <v>67.5168</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>30.12</v>
       </c>
       <c r="F159" t="n">
-        <v>0.06469776000000001</v>
+        <v>64.69776</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>29.775</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0641949</v>
+        <v>64.1949</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>51.87</v>
       </c>
       <c r="F161" t="n">
-        <v>0.11349156</v>
+        <v>113.49156</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>48.81</v>
       </c>
       <c r="F162" t="n">
-        <v>0.1064058</v>
+        <v>106.4058</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>42.735</v>
       </c>
       <c r="F163" t="n">
-        <v>0.09299136</v>
+        <v>92.99136</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>34.575</v>
       </c>
       <c r="F164" t="n">
-        <v>0.07482029999999999</v>
+        <v>74.82029999999999</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>30.585</v>
       </c>
       <c r="F165" t="n">
-        <v>0.06630828</v>
+        <v>66.30828</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>32.205</v>
       </c>
       <c r="F166" t="n">
-        <v>0.06982044000000001</v>
+        <v>69.82044</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>33.705</v>
       </c>
       <c r="F167" t="n">
-        <v>0.07320726000000001</v>
+        <v>73.20726000000001</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>35.505</v>
       </c>
       <c r="F168" t="n">
-        <v>0.07725887999999999</v>
+        <v>77.25887999999999</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>107.595</v>
       </c>
       <c r="F169" t="n">
-        <v>0.2388609</v>
+        <v>238.8609</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>101.16</v>
       </c>
       <c r="F170" t="n">
-        <v>0.22497984</v>
+        <v>224.97984</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>99.465</v>
       </c>
       <c r="F171" t="n">
-        <v>0.22041444</v>
+        <v>220.41444</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>91.785</v>
       </c>
       <c r="F172" t="n">
-        <v>0.20339556</v>
+        <v>203.39556</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>60.98999999999999</v>
       </c>
       <c r="F173" t="n">
-        <v>0.13344612</v>
+        <v>133.44612</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>38.895</v>
       </c>
       <c r="F174" t="n">
-        <v>0.08447994</v>
+        <v>84.47994</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>47.91</v>
       </c>
       <c r="F175" t="n">
-        <v>0.10406052</v>
+        <v>104.06052</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>23.505</v>
       </c>
       <c r="F176" t="n">
-        <v>0.05086482000000001</v>
+        <v>50.86482000000001</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>26.19</v>
       </c>
       <c r="F177" t="n">
-        <v>0.05667516</v>
+        <v>56.67516000000001</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>43.545</v>
       </c>
       <c r="F178" t="n">
-        <v>0.09457974000000001</v>
+        <v>94.57974000000002</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>48.39</v>
       </c>
       <c r="F179" t="n">
-        <v>0.10568376</v>
+        <v>105.68376</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>24.21</v>
       </c>
       <c r="F180" t="n">
-        <v>0.05180940000000001</v>
+        <v>51.80940000000001</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>22.8</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0490656</v>
+        <v>49.0656</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>18.825</v>
       </c>
       <c r="F182" t="n">
-        <v>0.04118910000000001</v>
+        <v>41.18910000000001</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>35.715</v>
       </c>
       <c r="F183" t="n">
-        <v>0.07728726</v>
+        <v>77.28726</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>15.585</v>
       </c>
       <c r="F184" t="n">
-        <v>0.03353892</v>
+        <v>33.53892</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>18.255</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0387006</v>
+        <v>38.7006</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>16.26</v>
       </c>
       <c r="F186" t="n">
-        <v>0.03492648</v>
+        <v>34.92648000000001</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>25.245</v>
       </c>
       <c r="F187" t="n">
-        <v>0.05422626</v>
+        <v>54.22626</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>24.93</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0543474</v>
+        <v>54.3474</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>33.69</v>
       </c>
       <c r="F189" t="n">
-        <v>0.07330943999999999</v>
+        <v>73.30944</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>31.605</v>
       </c>
       <c r="F190" t="n">
-        <v>0.06814038000000001</v>
+        <v>68.14038000000001</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>28.185</v>
       </c>
       <c r="F191" t="n">
-        <v>0.06076686</v>
+        <v>60.76686</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>51.645</v>
       </c>
       <c r="F192" t="n">
-        <v>0.11299926</v>
+        <v>112.99926</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>45.45</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0992628</v>
+        <v>99.2628</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>33.675</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0731421</v>
+        <v>73.1421</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>30.27</v>
       </c>
       <c r="F195" t="n">
-        <v>0.06598860000000001</v>
+        <v>65.98860000000001</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>33.45</v>
       </c>
       <c r="F196" t="n">
-        <v>0.072252</v>
+        <v>72.252</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>42.555</v>
       </c>
       <c r="F197" t="n">
-        <v>0.09242946</v>
+        <v>92.42946000000001</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>29.475</v>
       </c>
       <c r="F198" t="n">
-        <v>0.06343020000000001</v>
+        <v>63.43020000000001</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>18.855</v>
       </c>
       <c r="F199" t="n">
-        <v>0.04087764000000001</v>
+        <v>40.87764000000001</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>18.225</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0392202</v>
+        <v>39.2202</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>16.05</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0352458</v>
+        <v>35.2458</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>43.86</v>
       </c>
       <c r="F202" t="n">
-        <v>0.09526392</v>
+        <v>95.26392</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>40.71</v>
       </c>
       <c r="F203" t="n">
-        <v>0.08842212000000001</v>
+        <v>88.42212000000001</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>22.785</v>
       </c>
       <c r="F204" t="n">
-        <v>0.04894218</v>
+        <v>48.94218</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>31.62</v>
       </c>
       <c r="F205" t="n">
-        <v>0.06817271999999999</v>
+        <v>68.17272</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>29.49</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0642882</v>
+        <v>64.2882</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>16.35</v>
       </c>
       <c r="F207" t="n">
-        <v>0.034989</v>
+        <v>34.989</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>16.44</v>
       </c>
       <c r="F208" t="n">
-        <v>0.03577344</v>
+        <v>35.77343999999999</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>15.945</v>
       </c>
       <c r="F209" t="n">
-        <v>0.03424986000000001</v>
+        <v>34.24986000000001</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>14.775</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0320322</v>
+        <v>32.0322</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>14.7</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0318108</v>
+        <v>31.8108</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>16.38</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0350532</v>
+        <v>35.0532</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>14.625</v>
       </c>
       <c r="F213" t="n">
-        <v>0.031707</v>
+        <v>31.707</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>13.935</v>
       </c>
       <c r="F214" t="n">
-        <v>0.02976516</v>
+        <v>29.76516</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>15.945</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0338034</v>
+        <v>33.8034</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>20.235</v>
       </c>
       <c r="F216" t="n">
-        <v>0.04338384</v>
+        <v>43.38384</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>31.905</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0689148</v>
+        <v>68.9148</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>31.755</v>
       </c>
       <c r="F218" t="n">
-        <v>0.06897186000000001</v>
+        <v>68.97186000000001</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>31.485</v>
       </c>
       <c r="F219" t="n">
-        <v>0.06775571999999999</v>
+        <v>67.75572</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>31.185</v>
       </c>
       <c r="F220" t="n">
-        <v>0.06735960000000001</v>
+        <v>67.3596</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>30.84</v>
       </c>
       <c r="F221" t="n">
-        <v>0.06710784000000002</v>
+        <v>67.10784000000001</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>28.545</v>
       </c>
       <c r="F222" t="n">
-        <v>0.06188556</v>
+        <v>61.88556</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>27.105</v>
       </c>
       <c r="F223" t="n">
-        <v>0.05865522000000001</v>
+        <v>58.65522000000001</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>25.59</v>
       </c>
       <c r="F224" t="n">
-        <v>0.05517204000000001</v>
+        <v>55.17204000000001</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>23.31</v>
       </c>
       <c r="F225" t="n">
-        <v>0.05053608</v>
+        <v>50.53608</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>13.395</v>
       </c>
       <c r="F226" t="n">
-        <v>0.02925468</v>
+        <v>29.25468</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>11.415</v>
       </c>
       <c r="F227" t="n">
-        <v>0.02470206</v>
+        <v>24.70206</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>10.5</v>
       </c>
       <c r="F228" t="n">
-        <v>0.023352</v>
+        <v>23.352</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>9.885</v>
       </c>
       <c r="F229" t="n">
-        <v>0.02150976</v>
+        <v>21.50976</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>9.629999999999999</v>
       </c>
       <c r="F230" t="n">
-        <v>0.02087784</v>
+        <v>20.87784</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>9.105</v>
       </c>
       <c r="F231" t="n">
-        <v>0.01970322</v>
+        <v>19.70322</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>9.029999999999999</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0195048</v>
+        <v>19.5048</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>8.895</v>
       </c>
       <c r="F233" t="n">
-        <v>0.01935552</v>
+        <v>19.35552</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>8.67</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0185538</v>
+        <v>18.5538</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="F235" t="n">
-        <v>0.01808352</v>
+        <v>18.08352</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>8.115</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0170415</v>
+        <v>17.0415</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>7.395</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0158253</v>
+        <v>15.8253</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>7.26</v>
       </c>
       <c r="F238" t="n">
-        <v>0.01536216</v>
+        <v>15.36216</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>7.005</v>
       </c>
       <c r="F239" t="n">
-        <v>0.01546704</v>
+        <v>15.46704</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>6.765</v>
       </c>
       <c r="F240" t="n">
-        <v>0.01428768</v>
+        <v>14.28768</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>6.675</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0140976</v>
+        <v>14.0976</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>6.345</v>
       </c>
       <c r="F242" t="n">
-        <v>0.01388286</v>
+        <v>13.88286</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>6.029999999999999</v>
       </c>
       <c r="F243" t="n">
-        <v>0.01316952</v>
+        <v>13.16952</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>5.955</v>
       </c>
       <c r="F244" t="n">
-        <v>0.01269606</v>
+        <v>12.69606</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>5.85</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0125424</v>
+        <v>12.5424</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>5.774999999999999</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0121968</v>
+        <v>12.1968</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>5.49</v>
       </c>
       <c r="F247" t="n">
-        <v>0.01177056</v>
+        <v>11.77056</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>5.415</v>
       </c>
       <c r="F248" t="n">
-        <v>0.01160976</v>
+        <v>11.60976</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>5.355</v>
       </c>
       <c r="F249" t="n">
-        <v>0.01148112</v>
+        <v>11.48112</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>5.265</v>
       </c>
       <c r="F250" t="n">
-        <v>0.01124604</v>
+        <v>11.24604</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>5.1</v>
       </c>
       <c r="F251" t="n">
-        <v>0.010914</v>
+        <v>10.914</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>5.024999999999999</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0107535</v>
+        <v>10.7535</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>4.92</v>
       </c>
       <c r="F253" t="n">
-        <v>0.01046976</v>
+        <v>10.46976</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>4.53</v>
       </c>
       <c r="F254" t="n">
-        <v>0.00956736</v>
+        <v>9.567360000000001</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>4.14</v>
       </c>
       <c r="F255" t="n">
-        <v>0.00864432</v>
+        <v>8.64432</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>3.6</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0077904</v>
+        <v>7.7904</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>3.405</v>
       </c>
       <c r="F257" t="n">
-        <v>0.00724584</v>
+        <v>7.24584</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>3.18</v>
       </c>
       <c r="F258" t="n">
-        <v>0.00681792</v>
+        <v>6.81792</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>3.105</v>
       </c>
       <c r="F259" t="n">
-        <v>0.00679374</v>
+        <v>6.793740000000001</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>2.985</v>
       </c>
       <c r="F260" t="n">
-        <v>0.006471480000000001</v>
+        <v>6.471480000000001</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>2.94</v>
       </c>
       <c r="F261" t="n">
-        <v>0.00633864</v>
+        <v>6.338640000000001</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>2.895</v>
       </c>
       <c r="F262" t="n">
-        <v>0.00605634</v>
+        <v>6.056340000000001</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>2.76</v>
       </c>
       <c r="F263" t="n">
-        <v>0.00606096</v>
+        <v>6.06096</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>2.73</v>
       </c>
       <c r="F264" t="n">
-        <v>0.00582036</v>
+        <v>5.82036</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>2.61</v>
       </c>
       <c r="F265" t="n">
-        <v>0.00555408</v>
+        <v>5.55408</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>2.415</v>
       </c>
       <c r="F266" t="n">
-        <v>0.00510048</v>
+        <v>5.10048</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>2.34</v>
       </c>
       <c r="F267" t="n">
-        <v>0.00495144</v>
+        <v>4.95144</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>2.13</v>
       </c>
       <c r="F268" t="n">
-        <v>0.00465192</v>
+        <v>4.65192</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>2.01</v>
       </c>
       <c r="F269" t="n">
-        <v>0.00451848</v>
+        <v>4.51848</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>1.86</v>
       </c>
       <c r="F270" t="n">
-        <v>0.00414408</v>
+        <v>4.14408</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>1.8</v>
       </c>
       <c r="F271" t="n">
-        <v>0.0039456</v>
+        <v>3.9456</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>1.71</v>
       </c>
       <c r="F272" t="n">
-        <v>0.00380304</v>
+        <v>3.80304</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>1.65</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0036168</v>
+        <v>3.6168</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>1.515</v>
       </c>
       <c r="F274" t="n">
-        <v>0.00329058</v>
+        <v>3.29058</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>1.47</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0032928</v>
+        <v>3.2928</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>1.335</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0029904</v>
+        <v>2.9904</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>1.26</v>
       </c>
       <c r="F277" t="n">
-        <v>0.00273672</v>
+        <v>2.73672</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>1.215</v>
       </c>
       <c r="F278" t="n">
-        <v>0.00265356</v>
+        <v>2.65356</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>1.035</v>
       </c>
       <c r="F279" t="n">
-        <v>0.00231426</v>
+        <v>2.31426</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>1.005</v>
       </c>
       <c r="F280" t="n">
-        <v>0.00224316</v>
+        <v>2.24316</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>0.96</v>
       </c>
       <c r="F281" t="n">
-        <v>0.00218496</v>
+        <v>2.18496</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>0.9299999999999999</v>
       </c>
       <c r="F282" t="n">
-        <v>0.0021204</v>
+        <v>2.1204</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>0.855</v>
       </c>
       <c r="F283" t="n">
-        <v>0.00189468</v>
+        <v>1.89468</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>0.825</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0017985</v>
+        <v>1.7985</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>0.75</v>
       </c>
       <c r="F285" t="n">
-        <v>0.001686</v>
+        <v>1.686</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>0.705</v>
       </c>
       <c r="F286" t="n">
-        <v>0.00153972</v>
+        <v>1.53972</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>0.585</v>
       </c>
       <c r="F287" t="n">
-        <v>0.00130104</v>
+        <v>1.30104</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>0.465</v>
       </c>
       <c r="F288" t="n">
-        <v>0.00102672</v>
+        <v>1.02672</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>0.45</v>
       </c>
       <c r="F289" t="n">
-        <v>0.001026</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>0.42</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0009391200000000001</v>
+        <v>0.9391200000000001</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>0.39</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0008751600000000002</v>
+        <v>0.8751600000000002</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>0.39</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0008704800000000002</v>
+        <v>0.8704800000000001</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>0.36</v>
       </c>
       <c r="F293" t="n">
-        <v>0.00080784</v>
+        <v>0.80784</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>0.36</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0007819200000000001</v>
+        <v>0.7819200000000001</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>0.285</v>
       </c>
       <c r="F295" t="n">
-        <v>0.00063954</v>
+        <v>0.63954</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>0.255</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0005803800000000001</v>
+        <v>0.5803800000000001</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>0.225</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0004986</v>
+        <v>0.4986</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>0.21</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0004788</v>
+        <v>0.4788</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>0.15</v>
       </c>
       <c r="F299" t="n">
-        <v>0.0003324</v>
+        <v>0.3324</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>0.12</v>
       </c>
       <c r="F300" t="n">
-        <v>0.00027504</v>
+        <v>0.27504</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>0.105</v>
       </c>
       <c r="F301" t="n">
-        <v>0.00023814</v>
+        <v>0.23814</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>0.105</v>
       </c>
       <c r="F302" t="n">
-        <v>0.00023982</v>
+        <v>0.23982</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>0.09</v>
       </c>
       <c r="F303" t="n">
-        <v>0.00020448</v>
+        <v>0.20448</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>0.09</v>
       </c>
       <c r="F304" t="n">
-        <v>0.000207</v>
+        <v>0.207</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>0.075</v>
       </c>
       <c r="F305" t="n">
-        <v>0.0001695</v>
+        <v>0.1695</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>0.06</v>
       </c>
       <c r="F306" t="n">
-        <v>0.00013704</v>
+        <v>0.13704</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>0.015</v>
       </c>
       <c r="F307" t="n">
-        <v>3.588e-05</v>
+        <v>0.03588</v>
       </c>
     </row>
     <row r="308">
